--- a/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DC12EA-6F9F-4587-B6E5-FE00555DCC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B8AA29-DBA8-47ED-B942-EBC779D06076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D38"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B8AA29-DBA8-47ED-B942-EBC779D06076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350F795-0E4F-49B8-97F4-91BE8E2E29A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,54 +130,6 @@
     <t>Com-Friendster</t>
   </si>
   <si>
-    <t>cluster2-s20-e2</t>
-  </si>
-  <si>
-    <t>cluster2-s20-e4</t>
-  </si>
-  <si>
-    <t>cluster2-s20-e8</t>
-  </si>
-  <si>
-    <t>cluster2-s20-e16</t>
-  </si>
-  <si>
-    <t>cluster2-s20-e32</t>
-  </si>
-  <si>
-    <t>cluster2-s20-e64</t>
-  </si>
-  <si>
-    <t>cluster2-s20-e128</t>
-  </si>
-  <si>
-    <t>cluster2-s20-e256</t>
-  </si>
-  <si>
-    <t>cluster4-s17-e32</t>
-  </si>
-  <si>
-    <t>cluster4-s18-e32</t>
-  </si>
-  <si>
-    <t>cluster4-s19-e32</t>
-  </si>
-  <si>
-    <t>cluster4-s20-e32</t>
-  </si>
-  <si>
-    <t>cluster4-s21-e32</t>
-  </si>
-  <si>
-    <t>cluster4-s22-e32</t>
-  </si>
-  <si>
-    <t>cluster4-s23-e32</t>
-  </si>
-  <si>
-    <t>cluster4-s24-e32</t>
-  </si>
-  <si>
     <t>speed-up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,7 +154,63 @@
     <t>warpfirstvertex</t>
   </si>
   <si>
-    <t>degree&lt;100</t>
+    <t>s17-e32</t>
+  </si>
+  <si>
+    <t>s18-e32</t>
+  </si>
+  <si>
+    <t>s19-e32</t>
+  </si>
+  <si>
+    <t>s20-e32</t>
+  </si>
+  <si>
+    <t>s21-e32</t>
+  </si>
+  <si>
+    <t>s22-e32</t>
+  </si>
+  <si>
+    <t>s23-e32</t>
+  </si>
+  <si>
+    <t>s24-e32</t>
+  </si>
+  <si>
+    <t>s20-e2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20-e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20-e16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20-e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20-e32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20-e64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20-e128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20-e256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V&lt;100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +607,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -631,22 +639,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>47</v>
@@ -1391,7 +1399,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>3379767</v>
@@ -1400,13 +1408,13 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="D23">
-        <v>2.6919999999999999E-3</v>
+        <v>2.5089999999999999E-3</v>
       </c>
       <c r="E23">
         <v>2063645</v>
       </c>
       <c r="F23">
-        <v>2.0707692307692307</v>
+        <v>1.93</v>
       </c>
       <c r="G23">
         <v>333</v>
@@ -1426,22 +1434,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>7093994</v>
       </c>
       <c r="C24">
-        <v>2.7659999999999998E-3</v>
+        <v>2.6549999999999998E-3</v>
       </c>
       <c r="D24">
-        <v>5.7990000000000003E-3</v>
+        <v>5.79E-3</v>
       </c>
       <c r="E24">
         <v>4081946</v>
       </c>
       <c r="F24">
-        <v>2.0965292841648591</v>
+        <v>2.1807909604519775</v>
       </c>
       <c r="G24">
         <v>4868</v>
@@ -1461,7 +1469,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>8973742</v>
@@ -1470,13 +1478,13 @@
         <v>5.4440000000000001E-3</v>
       </c>
       <c r="D25">
-        <v>1.1587E-2</v>
+        <v>1.158E-2</v>
       </c>
       <c r="E25">
         <v>8029377</v>
       </c>
       <c r="F25">
-        <v>2.1283982365907419</v>
+        <v>2.1271124173401912</v>
       </c>
       <c r="G25">
         <v>21068</v>
@@ -1496,7 +1504,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>27226855</v>
@@ -1505,13 +1513,13 @@
         <v>1.4109999999999999E-2</v>
       </c>
       <c r="D26">
-        <v>3.1974000000000002E-2</v>
+        <v>3.1981000000000002E-2</v>
       </c>
       <c r="E26">
         <v>15673919</v>
       </c>
       <c r="F26">
-        <v>2.2660524450744157</v>
+        <v>2.2665485471296956</v>
       </c>
       <c r="G26">
         <v>40184</v>
@@ -1531,7 +1539,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>56151843</v>
@@ -1540,13 +1548,13 @@
         <v>3.5111000000000003E-2</v>
       </c>
       <c r="D27">
-        <v>7.0905999999999997E-2</v>
+        <v>7.1013999999999994E-2</v>
       </c>
       <c r="E27">
         <v>30290104</v>
       </c>
       <c r="F27">
-        <v>2.0194810743071967</v>
+        <v>2.0225570334083334</v>
       </c>
       <c r="G27">
         <v>60416</v>
@@ -1566,22 +1574,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>52305514</v>
       </c>
       <c r="C28">
-        <v>5.5204999999999997E-2</v>
+        <v>5.5209000000000001E-2</v>
       </c>
       <c r="D28">
-        <v>9.9953E-2</v>
+        <v>0.10009700000000001</v>
       </c>
       <c r="E28">
         <v>57814555</v>
       </c>
       <c r="F28">
-        <v>1.8105787519246446</v>
+        <v>1.8130558423445453</v>
       </c>
       <c r="G28">
         <v>137879</v>
@@ -1601,22 +1609,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>88837046</v>
       </c>
       <c r="C29">
-        <v>9.7303000000000001E-2</v>
+        <v>9.7344E-2</v>
       </c>
       <c r="D29">
-        <v>0.18601000000000001</v>
+        <v>0.186254</v>
       </c>
       <c r="E29">
         <v>108747344</v>
       </c>
       <c r="F29">
-        <v>1.9116574000801621</v>
+        <v>1.9133588099934253</v>
       </c>
       <c r="G29">
         <v>228316</v>
@@ -1636,22 +1644,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>190604472</v>
       </c>
       <c r="C30">
-        <v>0.219446</v>
+        <v>0.21951100000000001</v>
       </c>
       <c r="D30">
-        <v>0.39271400000000001</v>
+        <v>0.39321</v>
       </c>
       <c r="E30">
         <v>201086863</v>
       </c>
       <c r="F30">
-        <v>1.7895700992499295</v>
+        <v>1.7912997526319865</v>
       </c>
       <c r="G30">
         <v>263944</v>
@@ -1671,22 +1679,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>10728625</v>
       </c>
       <c r="C31">
-        <v>2.81E-3</v>
+        <v>2.64E-3</v>
       </c>
       <c r="D31">
-        <v>8.1320000000000003E-3</v>
+        <v>7.7340000000000004E-3</v>
       </c>
       <c r="E31">
         <v>3521310</v>
       </c>
       <c r="F31">
-        <v>2.8939501779359431</v>
+        <v>2.9295454545454547</v>
       </c>
       <c r="G31">
         <v>9301</v>
@@ -1706,22 +1714,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>24675747</v>
       </c>
       <c r="C32">
-        <v>6.045E-3</v>
+        <v>6.0419999999999996E-3</v>
       </c>
       <c r="D32">
-        <v>1.8783999999999999E-2</v>
+        <v>1.8769000000000001E-2</v>
       </c>
       <c r="E32">
         <v>7248722</v>
       </c>
       <c r="F32">
-        <v>3.1073614557485523</v>
+        <v>3.1064217146640187</v>
       </c>
       <c r="G32">
         <v>16521</v>
@@ -1741,22 +1749,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>18652012</v>
       </c>
       <c r="C33">
-        <v>1.1037999999999999E-2</v>
+        <v>1.1022000000000001E-2</v>
       </c>
       <c r="D33">
-        <v>2.3555E-2</v>
+        <v>2.3539999999999998E-2</v>
       </c>
       <c r="E33">
         <v>14843582</v>
       </c>
       <c r="F33">
-        <v>2.1339916651567314</v>
+        <v>2.1357285429141712</v>
       </c>
       <c r="G33">
         <v>43695</v>
@@ -1776,22 +1784,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>56151843</v>
       </c>
       <c r="C34">
-        <v>3.5113999999999999E-2</v>
+        <v>3.5109000000000001E-2</v>
       </c>
       <c r="D34">
-        <v>7.1007000000000001E-2</v>
+        <v>7.1004999999999999E-2</v>
       </c>
       <c r="E34">
         <v>30290104</v>
       </c>
       <c r="F34">
-        <v>2.0221848835222418</v>
+        <v>2.0224159047537666</v>
       </c>
       <c r="G34">
         <v>60416</v>
@@ -1811,22 +1819,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>37765420</v>
       </c>
       <c r="C35">
-        <v>5.8167999999999997E-2</v>
+        <v>5.8179000000000002E-2</v>
       </c>
       <c r="D35">
-        <v>0.10113</v>
+        <v>0.101247</v>
       </c>
       <c r="E35">
         <v>61604169</v>
       </c>
       <c r="F35">
-        <v>1.7385847888873607</v>
+        <v>1.7402671066879802</v>
       </c>
       <c r="G35">
         <v>189948</v>
@@ -1846,22 +1854,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>94881666</v>
       </c>
       <c r="C36">
-        <v>0.17467199999999999</v>
+        <v>0.17474700000000001</v>
       </c>
       <c r="D36">
-        <v>0.29062399999999999</v>
+        <v>0.29097299999999998</v>
       </c>
       <c r="E36">
         <v>124942349</v>
       </c>
       <c r="F36">
-        <v>1.6638270587157644</v>
+        <v>1.6651101306460194</v>
       </c>
       <c r="G36">
         <v>280499</v>
@@ -1881,22 +1889,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>273455101</v>
       </c>
       <c r="C37">
-        <v>0.53152299999999997</v>
+        <v>0.53167900000000001</v>
       </c>
       <c r="D37">
-        <v>0.89841499999999996</v>
+        <v>0.89841800000000005</v>
       </c>
       <c r="E37">
         <v>252819809</v>
       </c>
       <c r="F37">
-        <v>1.6902655200245333</v>
+        <v>1.6897752215152377</v>
       </c>
       <c r="G37">
         <v>403463</v>
@@ -1916,22 +1924,22 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>157645735</v>
       </c>
       <c r="C38">
-        <v>0.83467100000000005</v>
+        <v>0.83468900000000001</v>
       </c>
       <c r="D38">
-        <v>1.269746</v>
+        <v>1.269733</v>
       </c>
       <c r="E38">
         <v>510588330</v>
       </c>
       <c r="F38">
-        <v>1.521253284228157</v>
+        <v>1.5212049038623967</v>
       </c>
       <c r="G38">
         <v>1269873</v>

--- a/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
@@ -8,63 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350F795-0E4F-49B8-97F4-91BE8E2E29A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBE39F0-7789-4EE8-98BA-07875ECE0803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t>datasets</t>
+  </si>
+  <si>
+    <t>Triangle-count</t>
+  </si>
   <si>
     <t>GroupTC-HASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TRUST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge-count</t>
+  </si>
+  <si>
+    <t>speed-up</t>
+  </si>
+  <si>
+    <t>warpfirstvertex</t>
+  </si>
+  <si>
+    <t>warpfirstedge</t>
+  </si>
+  <si>
+    <t>nocomputefirstvertex</t>
+  </si>
+  <si>
+    <t>nocomputefirstedge</t>
+  </si>
+  <si>
+    <t>V&lt;100</t>
   </si>
   <si>
     <t>As-Caida</t>
@@ -130,28 +118,28 @@
     <t>Com-Friendster</t>
   </si>
   <si>
-    <t>speed-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triangle-count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edge-count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nocomputefirstedge</t>
-  </si>
-  <si>
-    <t>nocomputefirstvertex</t>
-  </si>
-  <si>
-    <t>warpfirstedge</t>
-  </si>
-  <si>
-    <t>warpfirstvertex</t>
+    <t>s20-e2</t>
+  </si>
+  <si>
+    <t>s20-e4</t>
+  </si>
+  <si>
+    <t>s20-e8</t>
+  </si>
+  <si>
+    <t>s20-e16</t>
+  </si>
+  <si>
+    <t>s20-e32</t>
+  </si>
+  <si>
+    <t>s20-e64</t>
+  </si>
+  <si>
+    <t>s20-e128</t>
+  </si>
+  <si>
+    <t>s20-e256</t>
   </si>
   <si>
     <t>s17-e32</t>
@@ -163,9 +151,6 @@
     <t>s19-e32</t>
   </si>
   <si>
-    <t>s20-e32</t>
-  </si>
-  <si>
     <t>s21-e32</t>
   </si>
   <si>
@@ -176,42 +161,6 @@
   </si>
   <si>
     <t>s24-e32</t>
-  </si>
-  <si>
-    <t>s20-e2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20-e4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20-e16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20-e8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20-e32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20-e64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20-e128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20-e256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V&lt;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -227,18 +176,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -255,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -278,27 +226,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -607,12 +541,12 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
@@ -622,47 +556,47 @@
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>36365</v>
@@ -676,9 +610,8 @@
       <c r="E2">
         <v>53381</v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2:F38">D2:D38/C2:C38</f>
-        <v>1.0987654320987654</v>
+      <c r="F2">
+        <v>1.098765432098765</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -692,14 +625,13 @@
       <c r="J2">
         <v>42646</v>
       </c>
-      <c r="K2" cm="1">
-        <f t="array" ref="K2:K38">I2:I38-G2:G38</f>
+      <c r="K2">
         <v>15709</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2024</v>
@@ -734,7 +666,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>239718</v>
@@ -749,7 +681,7 @@
         <v>364481</v>
       </c>
       <c r="F4">
-        <v>1.9545454545454546</v>
+        <v>1.954545454545455</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -769,7 +701,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>600257</v>
@@ -784,7 +716,7 @@
         <v>504230</v>
       </c>
       <c r="F5">
-        <v>2.0127388535031847</v>
+        <v>2.0127388535031852</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -802,44 +734,44 @@
         <v>51337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>4980044</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>5.0100000000000003E-4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4.2900000000000002E-4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>1090108</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>0.85628742514970058</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>487</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>62122</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>151666</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>918795</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>151179</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2145521</v>
@@ -854,7 +786,7 @@
         <v>1049866</v>
       </c>
       <c r="F7">
-        <v>1.6352941176470586</v>
+        <v>1.635294117647059</v>
       </c>
       <c r="G7">
         <v>14</v>
@@ -874,7 +806,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>3986507</v>
@@ -889,7 +821,7 @@
         <v>2443408</v>
       </c>
       <c r="F8">
-        <v>1.5267558528428093</v>
+        <v>1.5267558528428089</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -909,7 +841,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>120676</v>
@@ -944,7 +876,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>4314523</v>
@@ -959,7 +891,7 @@
         <v>4659565</v>
       </c>
       <c r="F10">
-        <v>2.4861913937058446</v>
+        <v>2.4861913937058451</v>
       </c>
       <c r="G10">
         <v>1411</v>
@@ -979,7 +911,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>53725684</v>
@@ -994,7 +926,7 @@
         <v>6649470</v>
       </c>
       <c r="F11">
-        <v>1.0799059929494712</v>
+        <v>1.079905992949471</v>
       </c>
       <c r="G11">
         <v>1854</v>
@@ -1014,7 +946,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>26241728</v>
@@ -1029,7 +961,7 @@
         <v>11095298</v>
       </c>
       <c r="F12">
-        <v>1.6543710807819993</v>
+        <v>1.6543710807819989</v>
       </c>
       <c r="G12">
         <v>988</v>
@@ -1049,7 +981,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>7515023</v>
@@ -1064,7 +996,7 @@
         <v>16518947</v>
       </c>
       <c r="F13">
-        <v>1.6556496591613303</v>
+        <v>1.6556496591613299</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1084,7 +1016,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>32557458</v>
@@ -1099,7 +1031,7 @@
         <v>22301964</v>
       </c>
       <c r="F14">
-        <v>1.6318164238752095</v>
+        <v>1.63181642387521</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1119,7 +1051,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>35105509</v>
@@ -1134,7 +1066,7 @@
         <v>28183518</v>
       </c>
       <c r="F15">
-        <v>1.9371300499971267</v>
+        <v>1.9371300499971269</v>
       </c>
       <c r="G15">
         <v>37378</v>
@@ -1154,7 +1086,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>98673840</v>
@@ -1169,7 +1101,7 @@
         <v>34681189</v>
       </c>
       <c r="F16">
-        <v>1.8109020249539782</v>
+        <v>1.810902024953978</v>
       </c>
       <c r="G16">
         <v>9274</v>
@@ -1189,7 +1121,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>125630993</v>
@@ -1204,7 +1136,7 @@
         <v>42851237</v>
       </c>
       <c r="F17">
-        <v>1.7723620782003213</v>
+        <v>1.7723620782003211</v>
       </c>
       <c r="G17">
         <v>18936</v>
@@ -1224,7 +1156,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>391668654</v>
@@ -1239,7 +1171,7 @@
         <v>117185083</v>
       </c>
       <c r="F18">
-        <v>1.6653542618160184</v>
+        <v>1.665354261816018</v>
       </c>
       <c r="G18">
         <v>121341</v>
@@ -1259,7 +1191,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>139685887</v>
@@ -1274,7 +1206,7 @@
         <v>260261843</v>
       </c>
       <c r="F19">
-        <v>1.6001009211939117</v>
+        <v>1.6001009211939119</v>
       </c>
       <c r="G19">
         <v>536055</v>
@@ -1294,7 +1226,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>325897951</v>
@@ -1309,7 +1241,7 @@
         <v>523467448</v>
       </c>
       <c r="F20">
-        <v>1.6298297653155935</v>
+        <v>1.629829765315594</v>
       </c>
       <c r="G20">
         <v>878869</v>
@@ -1329,7 +1261,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>1032300520</v>
@@ -1364,7 +1296,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>2267818608</v>
@@ -1379,7 +1311,7 @@
         <v>1806067135</v>
       </c>
       <c r="F22">
-        <v>1.6210289245361769</v>
+        <v>1.6210289245361771</v>
       </c>
       <c r="G22">
         <v>4258252</v>
@@ -1399,7 +1331,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>3379767</v>
@@ -1434,7 +1366,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>7093994</v>
@@ -1449,7 +1381,7 @@
         <v>4081946</v>
       </c>
       <c r="F24">
-        <v>2.1807909604519775</v>
+        <v>2.180790960451978</v>
       </c>
       <c r="G24">
         <v>4868</v>
@@ -1469,7 +1401,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>8973742</v>
@@ -1504,7 +1436,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>27226855</v>
@@ -1519,7 +1451,7 @@
         <v>15673919</v>
       </c>
       <c r="F26">
-        <v>2.2665485471296956</v>
+        <v>2.266548547129696</v>
       </c>
       <c r="G26">
         <v>40184</v>
@@ -1539,7 +1471,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>56151843</v>
@@ -1554,7 +1486,7 @@
         <v>30290104</v>
       </c>
       <c r="F27">
-        <v>2.0225570334083334</v>
+        <v>2.0225570334083329</v>
       </c>
       <c r="G27">
         <v>60416</v>
@@ -1574,7 +1506,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>52305514</v>
@@ -1589,7 +1521,7 @@
         <v>57814555</v>
       </c>
       <c r="F28">
-        <v>1.8130558423445453</v>
+        <v>1.8130558423445451</v>
       </c>
       <c r="G28">
         <v>137879</v>
@@ -1609,7 +1541,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>88837046</v>
@@ -1624,7 +1556,7 @@
         <v>108747344</v>
       </c>
       <c r="F29">
-        <v>1.9133588099934253</v>
+        <v>1.9133588099934249</v>
       </c>
       <c r="G29">
         <v>228316</v>
@@ -1644,7 +1576,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>190604472</v>
@@ -1659,7 +1591,7 @@
         <v>201086863</v>
       </c>
       <c r="F30">
-        <v>1.7912997526319865</v>
+        <v>1.791299752631986</v>
       </c>
       <c r="G30">
         <v>263944</v>
@@ -1679,7 +1611,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>10728625</v>
@@ -1694,7 +1626,7 @@
         <v>3521310</v>
       </c>
       <c r="F31">
-        <v>2.9295454545454547</v>
+        <v>2.9295454545454551</v>
       </c>
       <c r="G31">
         <v>9301</v>
@@ -1714,7 +1646,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>24675747</v>
@@ -1729,7 +1661,7 @@
         <v>7248722</v>
       </c>
       <c r="F32">
-        <v>3.1064217146640187</v>
+        <v>3.1064217146640192</v>
       </c>
       <c r="G32">
         <v>16521</v>
@@ -1749,7 +1681,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>18652012</v>
@@ -1764,7 +1696,7 @@
         <v>14843582</v>
       </c>
       <c r="F33">
-        <v>2.1357285429141712</v>
+        <v>2.1357285429141708</v>
       </c>
       <c r="G33">
         <v>43695</v>
@@ -1784,7 +1716,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>56151843</v>
@@ -1799,7 +1731,7 @@
         <v>30290104</v>
       </c>
       <c r="F34">
-        <v>2.0224159047537666</v>
+        <v>2.0224159047537671</v>
       </c>
       <c r="G34">
         <v>60416</v>
@@ -1819,7 +1751,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>37765420</v>
@@ -1834,7 +1766,7 @@
         <v>61604169</v>
       </c>
       <c r="F35">
-        <v>1.7402671066879802</v>
+        <v>1.74026710668798</v>
       </c>
       <c r="G35">
         <v>189948</v>
@@ -1854,7 +1786,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>94881666</v>
@@ -1869,7 +1801,7 @@
         <v>124942349</v>
       </c>
       <c r="F36">
-        <v>1.6651101306460194</v>
+        <v>1.665110130646019</v>
       </c>
       <c r="G36">
         <v>280499</v>
@@ -1889,7 +1821,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>273455101</v>
@@ -1904,7 +1836,7 @@
         <v>252819809</v>
       </c>
       <c r="F37">
-        <v>1.6897752215152377</v>
+        <v>1.689775221515238</v>
       </c>
       <c r="G37">
         <v>403463</v>
@@ -1924,7 +1856,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>157645735</v>
@@ -1939,7 +1871,7 @@
         <v>510588330</v>
       </c>
       <c r="F38">
-        <v>1.5212049038623967</v>
+        <v>1.5212049038623969</v>
       </c>
       <c r="G38">
         <v>1269873</v>
@@ -1958,7 +1890,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBE39F0-7789-4EE8-98BA-07875ECE0803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A313E84-C170-4E9F-A5DB-32ACC625F65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>datasets</t>
   </si>
@@ -55,69 +55,6 @@
     <t>V&lt;100</t>
   </si>
   <si>
-    <t>As-Caida</t>
-  </si>
-  <si>
-    <t>P2p-Gnutella31</t>
-  </si>
-  <si>
-    <t>Email-EuAll</t>
-  </si>
-  <si>
-    <t>Soc-Slashdot0922</t>
-  </si>
-  <si>
-    <t>Web-NotreDame</t>
-  </si>
-  <si>
-    <t>Com-Dblp</t>
-  </si>
-  <si>
-    <t>Amazon0601</t>
-  </si>
-  <si>
-    <t>RoadNet-CA</t>
-  </si>
-  <si>
-    <t>Wiki-Talk</t>
-  </si>
-  <si>
-    <t>Web-BerkStan</t>
-  </si>
-  <si>
-    <t>As-Skitter</t>
-  </si>
-  <si>
-    <t>Cit-Patents</t>
-  </si>
-  <si>
-    <t>Soc-Pokec</t>
-  </si>
-  <si>
-    <t>Sx-Stackoverflow</t>
-  </si>
-  <si>
-    <t>Com-Lj</t>
-  </si>
-  <si>
-    <t>Soc-LiveJ</t>
-  </si>
-  <si>
-    <t>Com-Orkut</t>
-  </si>
-  <si>
-    <t>graph500-scale24-ef16</t>
-  </si>
-  <si>
-    <t>graph500-scale25-ef16</t>
-  </si>
-  <si>
-    <t>Twitter7</t>
-  </si>
-  <si>
-    <t>Com-Friendster</t>
-  </si>
-  <si>
     <t>s20-e2</t>
   </si>
   <si>
@@ -161,6 +98,82 @@
   </si>
   <si>
     <t>s24-e32</t>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -179,6 +192,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -538,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,7 +610,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>36365</v>
@@ -631,7 +645,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>2024</v>
@@ -666,7 +680,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>239718</v>
@@ -701,7 +715,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>600257</v>
@@ -736,7 +750,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>4980044</v>
@@ -771,7 +785,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>2145521</v>
@@ -806,7 +820,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>3986507</v>
@@ -841,7 +855,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>120676</v>
@@ -876,7 +890,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>4314523</v>
@@ -911,7 +925,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>53725684</v>
@@ -946,7 +960,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>26241728</v>
@@ -981,7 +995,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>7515023</v>
@@ -1016,7 +1030,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>32557458</v>
@@ -1051,7 +1065,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>35105509</v>
@@ -1086,7 +1100,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>98673840</v>
@@ -1121,7 +1135,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>125630993</v>
@@ -1156,7 +1170,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>391668654</v>
@@ -1191,701 +1205,631 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B19">
-        <v>139685887</v>
+        <v>1032300520</v>
       </c>
       <c r="C19">
-        <v>0.434002</v>
+        <v>0.70181000000000004</v>
       </c>
       <c r="D19">
-        <v>0.69444700000000004</v>
+        <v>1.0517080000000001</v>
       </c>
       <c r="E19">
-        <v>260261843</v>
+        <v>1202513046</v>
       </c>
       <c r="F19">
-        <v>1.6001009211939119</v>
+        <v>1.498565138712757</v>
       </c>
       <c r="G19">
-        <v>536055</v>
+        <v>1892560</v>
       </c>
       <c r="H19">
-        <v>163635027</v>
+        <v>519397580</v>
       </c>
       <c r="I19">
-        <v>6690713</v>
+        <v>39680179</v>
       </c>
       <c r="J19">
-        <v>258097170</v>
+        <v>1200544694</v>
       </c>
       <c r="K19">
-        <v>6154658</v>
+        <v>37787619</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <v>325897951</v>
+        <v>2267818608</v>
       </c>
       <c r="C20">
-        <v>1.166801</v>
+        <v>1.082956</v>
       </c>
       <c r="D20">
-        <v>1.9016869999999999</v>
+        <v>1.755503</v>
       </c>
       <c r="E20">
-        <v>523467448</v>
+        <v>1806067135</v>
       </c>
       <c r="F20">
-        <v>1.629829765315594</v>
+        <v>1.6210289245361771</v>
       </c>
       <c r="G20">
-        <v>878869</v>
+        <v>4258252</v>
       </c>
       <c r="H20">
-        <v>315741003</v>
+        <v>636634507</v>
       </c>
       <c r="I20">
-        <v>12791662</v>
+        <v>51429670</v>
       </c>
       <c r="J20">
-        <v>519225583</v>
+        <v>1791953648</v>
       </c>
       <c r="K20">
-        <v>11912793</v>
+        <v>47171418</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>1032300520</v>
+        <v>3379767</v>
       </c>
       <c r="C21">
-        <v>0.70181000000000004</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D21">
-        <v>1.0517080000000001</v>
+        <v>2.5089999999999999E-3</v>
       </c>
       <c r="E21">
-        <v>1202513046</v>
+        <v>2063645</v>
       </c>
       <c r="F21">
-        <v>1.498565138712757</v>
+        <v>1.93</v>
       </c>
       <c r="G21">
-        <v>1892560</v>
+        <v>333</v>
       </c>
       <c r="H21">
-        <v>519397580</v>
+        <v>36473</v>
       </c>
       <c r="I21">
-        <v>39680179</v>
+        <v>218888</v>
       </c>
       <c r="J21">
-        <v>1200544694</v>
+        <v>1925411</v>
       </c>
       <c r="K21">
-        <v>37787619</v>
+        <v>218555</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>2267818608</v>
+        <v>7093994</v>
       </c>
       <c r="C22">
-        <v>1.082956</v>
+        <v>2.6549999999999998E-3</v>
       </c>
       <c r="D22">
-        <v>1.755503</v>
+        <v>5.79E-3</v>
       </c>
       <c r="E22">
-        <v>1806067135</v>
+        <v>4081946</v>
       </c>
       <c r="F22">
-        <v>1.6210289245361771</v>
+        <v>2.180790960451978</v>
       </c>
       <c r="G22">
-        <v>4258252</v>
+        <v>4868</v>
       </c>
       <c r="H22">
-        <v>636634507</v>
+        <v>630874</v>
       </c>
       <c r="I22">
-        <v>51429670</v>
+        <v>308118</v>
       </c>
       <c r="J22">
-        <v>1791953648</v>
+        <v>3934188</v>
       </c>
       <c r="K22">
-        <v>47171418</v>
+        <v>303250</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>3379767</v>
+        <v>8973742</v>
       </c>
       <c r="C23">
-        <v>1.2999999999999999E-3</v>
+        <v>5.4440000000000001E-3</v>
       </c>
       <c r="D23">
-        <v>2.5089999999999999E-3</v>
+        <v>1.158E-2</v>
       </c>
       <c r="E23">
-        <v>2063645</v>
+        <v>8029377</v>
       </c>
       <c r="F23">
-        <v>1.93</v>
+        <v>2.1271124173401912</v>
       </c>
       <c r="G23">
-        <v>333</v>
+        <v>21068</v>
       </c>
       <c r="H23">
-        <v>36473</v>
+        <v>3145701</v>
       </c>
       <c r="I23">
-        <v>218888</v>
+        <v>408682</v>
       </c>
       <c r="J23">
-        <v>1925411</v>
+        <v>7879355</v>
       </c>
       <c r="K23">
-        <v>218555</v>
+        <v>387614</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>7093994</v>
+        <v>27226855</v>
       </c>
       <c r="C24">
-        <v>2.6549999999999998E-3</v>
+        <v>1.4109999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>5.79E-3</v>
+        <v>3.1981000000000002E-2</v>
       </c>
       <c r="E24">
-        <v>4081946</v>
+        <v>15673919</v>
       </c>
       <c r="F24">
-        <v>2.180790960451978</v>
+        <v>2.266548547129696</v>
       </c>
       <c r="G24">
-        <v>4868</v>
+        <v>40184</v>
       </c>
       <c r="H24">
-        <v>630874</v>
+        <v>7991992</v>
       </c>
       <c r="I24">
-        <v>308118</v>
+        <v>517284</v>
       </c>
       <c r="J24">
-        <v>3934188</v>
+        <v>15530946</v>
       </c>
       <c r="K24">
-        <v>303250</v>
+        <v>477100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>8973742</v>
+        <v>56151843</v>
       </c>
       <c r="C25">
-        <v>5.4440000000000001E-3</v>
+        <v>3.5111000000000003E-2</v>
       </c>
       <c r="D25">
-        <v>1.158E-2</v>
+        <v>7.1013999999999994E-2</v>
       </c>
       <c r="E25">
-        <v>8029377</v>
+        <v>30290104</v>
       </c>
       <c r="F25">
-        <v>2.1271124173401912</v>
+        <v>2.0225570334083329</v>
       </c>
       <c r="G25">
-        <v>21068</v>
+        <v>60416</v>
       </c>
       <c r="H25">
-        <v>3145701</v>
+        <v>18823438</v>
       </c>
       <c r="I25">
-        <v>408682</v>
+        <v>626806</v>
       </c>
       <c r="J25">
-        <v>7879355</v>
+        <v>30161953</v>
       </c>
       <c r="K25">
-        <v>387614</v>
+        <v>566390</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>27226855</v>
+        <v>52305514</v>
       </c>
       <c r="C26">
-        <v>1.4109999999999999E-2</v>
+        <v>5.5209000000000001E-2</v>
       </c>
       <c r="D26">
-        <v>3.1981000000000002E-2</v>
+        <v>0.10009700000000001</v>
       </c>
       <c r="E26">
-        <v>15673919</v>
+        <v>57814555</v>
       </c>
       <c r="F26">
-        <v>2.266548547129696</v>
+        <v>1.8130558423445451</v>
       </c>
       <c r="G26">
-        <v>40184</v>
+        <v>137879</v>
       </c>
       <c r="H26">
-        <v>7991992</v>
+        <v>46629291</v>
       </c>
       <c r="I26">
-        <v>517284</v>
+        <v>728771</v>
       </c>
       <c r="J26">
-        <v>15530946</v>
+        <v>57706306</v>
       </c>
       <c r="K26">
-        <v>477100</v>
+        <v>590892</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>56151843</v>
+        <v>88837046</v>
       </c>
       <c r="C27">
-        <v>3.5111000000000003E-2</v>
+        <v>9.7344E-2</v>
       </c>
       <c r="D27">
-        <v>7.1013999999999994E-2</v>
+        <v>0.186254</v>
       </c>
       <c r="E27">
-        <v>30290104</v>
+        <v>108747344</v>
       </c>
       <c r="F27">
-        <v>2.0225570334083329</v>
+        <v>1.9133588099934249</v>
       </c>
       <c r="G27">
-        <v>60416</v>
+        <v>228316</v>
       </c>
       <c r="H27">
-        <v>18823438</v>
+        <v>96371407</v>
       </c>
       <c r="I27">
-        <v>626806</v>
+        <v>819137</v>
       </c>
       <c r="J27">
-        <v>30161953</v>
+        <v>108661967</v>
       </c>
       <c r="K27">
-        <v>566390</v>
+        <v>590821</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>52305514</v>
+        <v>190604472</v>
       </c>
       <c r="C28">
-        <v>5.5209000000000001E-2</v>
+        <v>0.21951100000000001</v>
       </c>
       <c r="D28">
-        <v>0.10009700000000001</v>
+        <v>0.39321</v>
       </c>
       <c r="E28">
-        <v>57814555</v>
+        <v>201086863</v>
       </c>
       <c r="F28">
-        <v>1.8130558423445451</v>
+        <v>1.791299752631986</v>
       </c>
       <c r="G28">
-        <v>137879</v>
+        <v>263944</v>
       </c>
       <c r="H28">
-        <v>46629291</v>
+        <v>183139066</v>
       </c>
       <c r="I28">
-        <v>728771</v>
+        <v>892588</v>
       </c>
       <c r="J28">
-        <v>57706306</v>
+        <v>201023463</v>
       </c>
       <c r="K28">
-        <v>590892</v>
+        <v>628644</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>88837046</v>
+        <v>10728625</v>
       </c>
       <c r="C29">
-        <v>9.7344E-2</v>
+        <v>2.64E-3</v>
       </c>
       <c r="D29">
-        <v>0.186254</v>
+        <v>7.7340000000000004E-3</v>
       </c>
       <c r="E29">
-        <v>108747344</v>
+        <v>3521310</v>
       </c>
       <c r="F29">
-        <v>1.9133588099934249</v>
+        <v>2.9295454545454551</v>
       </c>
       <c r="G29">
-        <v>228316</v>
+        <v>9301</v>
       </c>
       <c r="H29">
-        <v>96371407</v>
+        <v>1961680</v>
       </c>
       <c r="I29">
-        <v>819137</v>
+        <v>87794</v>
       </c>
       <c r="J29">
-        <v>108661967</v>
+        <v>3506244</v>
       </c>
       <c r="K29">
-        <v>590821</v>
+        <v>78493</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>190604472</v>
+        <v>24675747</v>
       </c>
       <c r="C30">
-        <v>0.21951100000000001</v>
+        <v>6.0419999999999996E-3</v>
       </c>
       <c r="D30">
-        <v>0.39321</v>
+        <v>1.8769000000000001E-2</v>
       </c>
       <c r="E30">
-        <v>201086863</v>
+        <v>7248722</v>
       </c>
       <c r="F30">
-        <v>1.791299752631986</v>
+        <v>3.1064217146640192</v>
       </c>
       <c r="G30">
-        <v>263944</v>
+        <v>16521</v>
       </c>
       <c r="H30">
-        <v>183139066</v>
+        <v>3979866</v>
       </c>
       <c r="I30">
-        <v>892588</v>
+        <v>169152</v>
       </c>
       <c r="J30">
-        <v>201023463</v>
+        <v>7218010</v>
       </c>
       <c r="K30">
-        <v>628644</v>
+        <v>152631</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>10728625</v>
+        <v>18652012</v>
       </c>
       <c r="C31">
-        <v>2.64E-3</v>
+        <v>1.1022000000000001E-2</v>
       </c>
       <c r="D31">
-        <v>7.7340000000000004E-3</v>
+        <v>2.3539999999999998E-2</v>
       </c>
       <c r="E31">
-        <v>3521310</v>
+        <v>14843582</v>
       </c>
       <c r="F31">
-        <v>2.9295454545454551</v>
+        <v>2.1357285429141708</v>
       </c>
       <c r="G31">
-        <v>9301</v>
+        <v>43695</v>
       </c>
       <c r="H31">
-        <v>1961680</v>
+        <v>10105463</v>
       </c>
       <c r="I31">
-        <v>87794</v>
+        <v>325306</v>
       </c>
       <c r="J31">
-        <v>3506244</v>
+        <v>14780230</v>
       </c>
       <c r="K31">
-        <v>78493</v>
+        <v>281611</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>24675747</v>
+        <v>56151843</v>
       </c>
       <c r="C32">
-        <v>6.0419999999999996E-3</v>
+        <v>3.5109000000000001E-2</v>
       </c>
       <c r="D32">
-        <v>1.8769000000000001E-2</v>
+        <v>7.1004999999999999E-2</v>
       </c>
       <c r="E32">
-        <v>7248722</v>
+        <v>30290104</v>
       </c>
       <c r="F32">
-        <v>3.1064217146640192</v>
+        <v>2.0224159047537671</v>
       </c>
       <c r="G32">
-        <v>16521</v>
+        <v>60416</v>
       </c>
       <c r="H32">
-        <v>3979866</v>
+        <v>18823438</v>
       </c>
       <c r="I32">
-        <v>169152</v>
+        <v>626806</v>
       </c>
       <c r="J32">
-        <v>7218010</v>
+        <v>30161953</v>
       </c>
       <c r="K32">
-        <v>152631</v>
+        <v>566390</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>18652012</v>
+        <v>37765420</v>
       </c>
       <c r="C33">
-        <v>1.1022000000000001E-2</v>
+        <v>5.8179000000000002E-2</v>
       </c>
       <c r="D33">
-        <v>2.3539999999999998E-2</v>
+        <v>0.101247</v>
       </c>
       <c r="E33">
-        <v>14843582</v>
+        <v>61604169</v>
       </c>
       <c r="F33">
-        <v>2.1357285429141708</v>
+        <v>1.74026710668798</v>
       </c>
       <c r="G33">
-        <v>43695</v>
+        <v>189948</v>
       </c>
       <c r="H33">
-        <v>10105463</v>
+        <v>46571394</v>
       </c>
       <c r="I33">
-        <v>325306</v>
+        <v>1204507</v>
       </c>
       <c r="J33">
-        <v>14780230</v>
+        <v>61343269</v>
       </c>
       <c r="K33">
-        <v>281611</v>
+        <v>1014559</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>56151843</v>
+        <v>94881666</v>
       </c>
       <c r="C34">
-        <v>3.5109000000000001E-2</v>
+        <v>0.17474700000000001</v>
       </c>
       <c r="D34">
-        <v>7.1004999999999999E-2</v>
+        <v>0.29097299999999998</v>
       </c>
       <c r="E34">
-        <v>30290104</v>
+        <v>124942349</v>
       </c>
       <c r="F34">
-        <v>2.0224159047537671</v>
+        <v>1.665110130646019</v>
       </c>
       <c r="G34">
-        <v>60416</v>
+        <v>280499</v>
       </c>
       <c r="H34">
-        <v>18823438</v>
+        <v>89862334</v>
       </c>
       <c r="I34">
-        <v>626806</v>
+        <v>2315813</v>
       </c>
       <c r="J34">
-        <v>30161953</v>
+        <v>124412652</v>
       </c>
       <c r="K34">
-        <v>566390</v>
+        <v>2035314</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>37765420</v>
+        <v>273455101</v>
       </c>
       <c r="C35">
-        <v>5.8179000000000002E-2</v>
+        <v>0.53167900000000001</v>
       </c>
       <c r="D35">
-        <v>0.101247</v>
+        <v>0.89841800000000005</v>
       </c>
       <c r="E35">
-        <v>61604169</v>
+        <v>252819809</v>
       </c>
       <c r="F35">
-        <v>1.74026710668798</v>
+        <v>1.689775221515238</v>
       </c>
       <c r="G35">
-        <v>189948</v>
+        <v>403463</v>
       </c>
       <c r="H35">
-        <v>46571394</v>
+        <v>169764840</v>
       </c>
       <c r="I35">
-        <v>1204507</v>
+        <v>4460152</v>
       </c>
       <c r="J35">
-        <v>61343269</v>
+        <v>251760234</v>
       </c>
       <c r="K35">
-        <v>1014559</v>
+        <v>4056689</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>94881666</v>
+        <v>157645735</v>
       </c>
       <c r="C36">
-        <v>0.17474700000000001</v>
+        <v>0.83468900000000001</v>
       </c>
       <c r="D36">
-        <v>0.29097299999999998</v>
+        <v>1.269733</v>
       </c>
       <c r="E36">
-        <v>124942349</v>
+        <v>510588330</v>
       </c>
       <c r="F36">
-        <v>1.665110130646019</v>
+        <v>1.5212049038623969</v>
       </c>
       <c r="G36">
-        <v>280499</v>
+        <v>1269873</v>
       </c>
       <c r="H36">
-        <v>89862334</v>
+        <v>404162374</v>
       </c>
       <c r="I36">
-        <v>2315813</v>
+        <v>8578357</v>
       </c>
       <c r="J36">
-        <v>124412652</v>
+        <v>508459676</v>
       </c>
       <c r="K36">
-        <v>2035314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37">
-        <v>273455101</v>
-      </c>
-      <c r="C37">
-        <v>0.53167900000000001</v>
-      </c>
-      <c r="D37">
-        <v>0.89841800000000005</v>
-      </c>
-      <c r="E37">
-        <v>252819809</v>
-      </c>
-      <c r="F37">
-        <v>1.689775221515238</v>
-      </c>
-      <c r="G37">
-        <v>403463</v>
-      </c>
-      <c r="H37">
-        <v>169764840</v>
-      </c>
-      <c r="I37">
-        <v>4460152</v>
-      </c>
-      <c r="J37">
-        <v>251760234</v>
-      </c>
-      <c r="K37">
-        <v>4056689</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38">
-        <v>157645735</v>
-      </c>
-      <c r="C38">
-        <v>0.83468900000000001</v>
-      </c>
-      <c r="D38">
-        <v>1.269733</v>
-      </c>
-      <c r="E38">
-        <v>510588330</v>
-      </c>
-      <c r="F38">
-        <v>1.5212049038623969</v>
-      </c>
-      <c r="G38">
-        <v>1269873</v>
-      </c>
-      <c r="H38">
-        <v>404162374</v>
-      </c>
-      <c r="I38">
-        <v>8578357</v>
-      </c>
-      <c r="J38">
-        <v>508459676</v>
-      </c>
-      <c r="K38">
         <v>7308484</v>
       </c>
     </row>

--- a/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
+++ b/draw_graph/TrustVSGroupTC/lowDegree-all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A313E84-C170-4E9F-A5DB-32ACC625F65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0E38BE-448B-4B13-BC13-9ACBA705EC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Am</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,10 +148,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -168,11 +160,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tw</t>
+    <t>CF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CF</t>
+    <t>AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,7 +820,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>3986507</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>120676</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>4314523</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>53725684</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>26241728</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>7515023</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>32557458</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>35105509</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>98673840</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>125630993</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>391668654</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>1032300520</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>2267818608</v>
